--- a/test/calc_pier_reaction.xlsx
+++ b/test/calc_pier_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="655" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -166,7 +166,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -186,7 +186,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>2</v>
@@ -201,7 +201,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>85</v>
+        <v>82.7777</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>4</v>
@@ -224,7 +224,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>122.126761</v>
+        <v>127.873229</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,7 +265,7 @@
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">IF(F3&gt;0, C2*(C3-C6)/F2+C4*(C9-C5)/F3, 0)</f>
-        <v>493.43999504</v>
+        <v>549.35983856</v>
       </c>
     </row>
   </sheetData>
